--- a/migforecasting/clustering/mediandata (abs).xlsx
+++ b/migforecasting/clustering/mediandata (abs).xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>clust</t>
   </si>
@@ -91,13 +91,22 @@
   </si>
   <si>
     <t>Cluster 5</t>
+  </si>
+  <si>
+    <t>migprop</t>
+  </si>
+  <si>
+    <t>worst case</t>
+  </si>
+  <si>
+    <t>real worst abs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +119,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,11 +158,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -156,6 +183,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,19 +495,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +567,17 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -582,8 +632,20 @@
       <c r="R2" s="2">
         <v>2214356.7972799898</v>
       </c>
+      <c r="S2" s="5">
+        <f>B2/C2</f>
+        <v>-3.3249897261553407E-3</v>
+      </c>
+      <c r="T2" s="3">
+        <f>(C2/C$4)*B$4</f>
+        <v>-206.02190645352081</v>
+      </c>
+      <c r="U2" s="3">
+        <f>ABS(B2-T2)</f>
+        <v>117.02190645352081</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -638,8 +700,20 @@
       <c r="R3" s="2">
         <v>5427649.7757449904</v>
       </c>
+      <c r="S3" s="5">
+        <f t="shared" ref="S3:S7" si="0">B3/C3</f>
+        <v>-2.4455917590968639E-3</v>
+      </c>
+      <c r="T3" s="3">
+        <f>(C3/C$4)*B$4</f>
+        <v>-311.57667258732602</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" ref="U3:U7" si="1">ABS(B3-T3)</f>
+        <v>212.57667258732613</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -694,8 +768,19 @@
       <c r="R4" s="2">
         <v>515039.88403999899</v>
       </c>
+      <c r="S4" s="5">
+        <f t="shared" si="0"/>
+        <v>-7.6968620485493638E-3</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-103.99999999999901</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -750,8 +835,20 @@
       <c r="R5" s="2">
         <v>2390521.9521599901</v>
       </c>
+      <c r="S5" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.5491035590045047E-3</v>
+      </c>
+      <c r="T5" s="3">
+        <f>(C5/C$4)*B$4</f>
+        <v>-172.57904085257385</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="1"/>
+        <v>70.579040852574849</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -806,8 +903,20 @@
       <c r="R6" s="2">
         <v>18654454.969425</v>
       </c>
+      <c r="S6" s="5">
+        <f t="shared" si="0"/>
+        <v>-3.4253044365248272E-3</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" ref="T6:T7" si="2">(C6/C$4)*B$4</f>
+        <v>-305.60005920662826</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="1"/>
+        <v>169.60005920662826</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -862,8 +971,44 @@
       <c r="R7" s="2">
         <v>1354138.0187599901</v>
       </c>
+      <c r="S7" s="5">
+        <f t="shared" si="0"/>
+        <v>-4.9926338189556392E-3</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="2"/>
+        <v>-188.08052101835224</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="1"/>
+        <v>66.080521018352243</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="S2:S7">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/migforecasting/clustering/mediandata (abs).xlsx
+++ b/migforecasting/clustering/mediandata (abs).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>clust</t>
   </si>
@@ -75,31 +75,7 @@
     <t>factoriescap</t>
   </si>
   <si>
-    <t>Cluster 0</t>
-  </si>
-  <si>
-    <t>Cluster 1</t>
-  </si>
-  <si>
-    <t>Cluster 2</t>
-  </si>
-  <si>
-    <t>Cluster 3</t>
-  </si>
-  <si>
-    <t>Cluster 4</t>
-  </si>
-  <si>
-    <t>Cluster 5</t>
-  </si>
-  <si>
     <t>migprop</t>
-  </si>
-  <si>
-    <t>worst case</t>
-  </si>
-  <si>
-    <t>real worst abs</t>
   </si>
 </sst>
 </file>
@@ -162,9 +138,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -173,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -184,14 +158,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,7 +475,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,8 +483,9 @@
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="22.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
     <col min="20" max="20" width="15.42578125" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" customWidth="1"/>
   </cols>
@@ -567,19 +545,15 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
+      <c r="A2" s="2">
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>-89</v>
@@ -629,25 +603,19 @@
       <c r="Q2" s="2">
         <v>1133.99999999999</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="7">
         <v>2214356.7972799898</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <f>B2/C2</f>
         <v>-3.3249897261553407E-3</v>
       </c>
-      <c r="T2" s="3">
-        <f>(C2/C$4)*B$4</f>
-        <v>-206.02190645352081</v>
-      </c>
-      <c r="U2" s="3">
-        <f>ABS(B2-T2)</f>
-        <v>117.02190645352081</v>
-      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
+      <c r="A3" s="2">
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>-98.999999999999901</v>
@@ -697,25 +665,19 @@
       <c r="Q3" s="2">
         <v>2317</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="7">
         <v>5427649.7757449904</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <f t="shared" ref="S3:S7" si="0">B3/C3</f>
         <v>-2.4455917590968639E-3</v>
       </c>
-      <c r="T3" s="3">
-        <f>(C3/C$4)*B$4</f>
-        <v>-311.57667258732602</v>
-      </c>
-      <c r="U3" s="3">
-        <f t="shared" ref="U3:U7" si="1">ABS(B3-T3)</f>
-        <v>212.57667258732613</v>
-      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
+      <c r="A4" s="2">
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>-103.99999999999901</v>
@@ -765,24 +727,19 @@
       <c r="Q4" s="2">
         <v>692.99999999999898</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="7">
         <v>515039.88403999899</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <f t="shared" si="0"/>
         <v>-7.6968620485493638E-3</v>
       </c>
-      <c r="T4" s="2">
-        <v>-103.99999999999901</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
+      <c r="A5" s="2">
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>-101.99999999999901</v>
@@ -832,25 +789,19 @@
       <c r="Q5" s="2">
         <v>1026.99999999999</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="7">
         <v>2390521.9521599901</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="4">
         <f t="shared" si="0"/>
         <v>-4.5491035590045047E-3</v>
       </c>
-      <c r="T5" s="3">
-        <f>(C5/C$4)*B$4</f>
-        <v>-172.57904085257385</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" si="1"/>
-        <v>70.579040852574849</v>
-      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
+      <c r="A6" s="2">
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>-136</v>
@@ -900,25 +851,19 @@
       <c r="Q6" s="2">
         <v>2356</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="7">
         <v>18654454.969425</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <f t="shared" si="0"/>
         <v>-3.4253044365248272E-3</v>
       </c>
-      <c r="T6" s="3">
-        <f t="shared" ref="T6:T7" si="2">(C6/C$4)*B$4</f>
-        <v>-305.60005920662826</v>
-      </c>
-      <c r="U6" s="3">
-        <f t="shared" si="1"/>
-        <v>169.60005920662826</v>
-      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
+      <c r="A7" s="2">
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>-122</v>
@@ -968,21 +913,15 @@
       <c r="Q7" s="2">
         <v>1209.99999999999</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="7">
         <v>1354138.0187599901</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <f t="shared" si="0"/>
         <v>-4.9926338189556392E-3</v>
       </c>
-      <c r="T7" s="3">
-        <f t="shared" si="2"/>
-        <v>-188.08052101835224</v>
-      </c>
-      <c r="U7" s="3">
-        <f t="shared" si="1"/>
-        <v>66.080521018352243</v>
-      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="S2:S7">
